--- a/1_Angular_Architecture.xlsx
+++ b/1_Angular_Architecture.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E98F5711-CB6D-4A07-907B-EB94A701B3D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21690E7-D7F9-4FB7-ADA1-AC7950A70E91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53B1814F-D04B-4B0C-B186-7C2D790F3D1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Architectures" sheetId="1" r:id="rId1"/>
+    <sheet name="One-Way Data Flow" sheetId="4" r:id="rId2"/>
+    <sheet name="Dependency Injection" sheetId="2" r:id="rId3"/>
+    <sheet name="Components - Custom" sheetId="3" r:id="rId4"/>
+    <sheet name="Directives" sheetId="5" r:id="rId5"/>
+    <sheet name="Templates" sheetId="6" r:id="rId6"/>
+    <sheet name="Zone.js&amp;Change_Detection" sheetId="7" r:id="rId7"/>
+    <sheet name="Rendering Targets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +40,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Angular Architecture</t>
+  </si>
+  <si>
+    <t>SR#</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Data Binding</t>
+  </si>
+  <si>
+    <t>Directives</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>https://v2.angular.io/docs/ts/latest/guide/architecture.html</t>
+  </si>
+  <si>
+    <t>https://codeburst.io/understanding-angular-guards-347b452e1892</t>
+  </si>
+  <si>
+    <t>Concept Name</t>
+  </si>
+  <si>
+    <t>Concepts Topics</t>
+  </si>
+  <si>
+    <t>One way Data Flow</t>
+  </si>
+  <si>
+    <t>Dependenccy Injections</t>
+  </si>
+  <si>
+    <t>Zone.Js</t>
+  </si>
+  <si>
+    <t>Rendering Targets</t>
+  </si>
+  <si>
+    <t>Use for change detection for component state
+This flow aloways DOWN not UP</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Important feature in Angular
+</t>
+  </si>
+  <si>
+    <t>Core Piece of Angular
+It’s the way to add new capabilities to an element of your display</t>
+  </si>
+  <si>
+    <t>TemplateUrl</t>
+  </si>
+  <si>
+    <t>Inline Template</t>
+  </si>
+  <si>
+    <t>Zone.js and Change_Detection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* re-render the display when its state changes
+* It happens spontaneously (Happen suddenly or automatically)
+* State changes when something happens in an application
+* this will always be the result of some kind of event, such as
+    - User Interaction like entering data in a text box ...or
+    - Clicking a button, or an HTTP request retuirns its result ...or
+    - Timer fires ...or similar event
+* where we want framework's change detection to kick-in and reredner anything that has changed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Zone.js is the key to Angular's change detection</t>
+    </r>
+  </si>
+  <si>
+    <t>Zone.js</t>
+  </si>
+  <si>
+    <t>* Zone.js create a wrapper around all asynchronous operationsin the browsers such as User Interactions, HTTP, timers and any other events that can casue changes in state
+* Zone knows when any of these operations completes
+* In Angular, subscribes to notifications from Zone for whenever one of these operations completes
+* This allows Angular know that it can run its change detection
+* Application Performance is the big piece of Change Detection in Angular</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Angular is built to allow itself to be rendered to any number of devices by changing the rendering engine
+* Angular comes with two default packages to enable rendering to the browser and the DOM
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* Angular Default pacjages are…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+   - Browser-platform
+   - Browser-platform-dynabmic libraries
+* They allow both just-in-time compilation and pre-compilationfor browsers
+* Angular also supports many Redering Targets currently &amp; may support more in future
+* Most popular rendering tartgets currently are
+   - Browser/DOM
+   - server-side rendering with Angular Universal
+   - Native Mobile Apps
+   - Native Desktop Apps
+   - Other rendering targets as well...</t>
+    </r>
+  </si>
+  <si>
+    <t>Architecture Intro Concepts</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,13 +214,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,13 +272,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -81,6 +325,520 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199019</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0110B1-6876-427F-BF67-C7756ECA0A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8733419" cy="4910151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1737406</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F312AF-2FCF-43C3-BBBA-BD881E45EA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9062131" cy="5094961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>232444</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A073FB-9D3C-45F6-8D5C-AE25330A3835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="5709319" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>575417</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F48E78F-FF61-4343-B7E8-5961E639D997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="0"/>
+          <a:ext cx="5804642" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2503E56B-4F25-4B57-B98A-41AB2E7EEFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3248024"/>
+          <a:ext cx="5724524" cy="3218474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492358</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F56E203-A2EC-467A-9285-852CCAFF8A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5978758" cy="3361410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>465098</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849BACB4-AA24-4983-A2A6-8127A5D361BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="1"/>
+          <a:ext cx="5989598" cy="3367504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE581C1-93C6-4ADC-927D-41AF9BFD6A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="400050"/>
+          <a:ext cx="6096000" cy="3427326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48590</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>34625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF663C3-C562-41C3-8E83-B63CC0B1393B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6144590" y="400050"/>
+          <a:ext cx="6082035" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>206797</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>162260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621C77BF-717F-47EA-A19E-315AB5E84CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4473997" y="0"/>
+          <a:ext cx="4422353" cy="2486360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268833</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303172</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6446ADD-A034-45B1-B74D-C0E6D9EAD6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4536033" y="2876550"/>
+          <a:ext cx="4301539" cy="2418435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,13 +1138,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEA86F6-0332-4CAD-A117-B1AB0E7A476A}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{F8341F2B-C2F2-4635-8CED-7497C9CA703E}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{4001607D-8868-487A-8D36-2D0493B3D5D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE750033-03D0-4D6C-8184-4A652666A619}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA92C0F-CF5D-4D9E-845A-A4DA0541E02A}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="4" width="61.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04EDC57A-FBC5-473C-AD27-9DA0A54B43F0}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2358761A-69E2-48B7-B514-22D607136DBD}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF819B0C-B5E2-468F-AC97-C2206479F540}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D417908-DBF6-43D4-9FD8-EB4AA5A93474}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BCED32-DED7-4B65-983A-EE083C154288}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>